--- a/DocumentazioneBD/Dizionario Basi.xlsx
+++ b/DocumentazioneBD/Dizionario Basi.xlsx
@@ -2193,6 +2193,219 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2220,9 +2433,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2232,12 +2442,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2250,186 +2454,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2445,38 +2475,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AL235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113:J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,1575 +2773,1575 @@
   <sheetData>
     <row r="3" spans="4:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:38" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="P4" s="39" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="69"/>
+      <c r="P4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44" t="s">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="46" t="s">
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
     </row>
     <row r="5" spans="4:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="49" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="P5" s="76" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="P5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="49" t="s">
+      <c r="Q5" s="71"/>
+      <c r="R5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="41" t="s">
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="49" t="s">
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="33"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
     </row>
     <row r="7" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="33"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
     </row>
     <row r="8" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="33"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
     </row>
     <row r="9" spans="4:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="33"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
     </row>
     <row r="10" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="28"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
     </row>
     <row r="11" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="28"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
     </row>
     <row r="12" spans="4:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="102"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="28"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
     </row>
     <row r="13" spans="4:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="31" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37" t="s">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="83" t="s">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="99"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
     </row>
     <row r="14" spans="4:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="33"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
     </row>
     <row r="15" spans="4:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="33"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="99"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
     </row>
     <row r="16" spans="4:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="28"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
     </row>
     <row r="17" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="28"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
     </row>
     <row r="18" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-      <c r="P18" s="78" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="28"/>
+      <c r="P18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="31" t="s">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="42" t="s">
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
     </row>
     <row r="19" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="28"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
     </row>
     <row r="20" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="28"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
     </row>
     <row r="21" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="28"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
     </row>
     <row r="22" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="28"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
     </row>
     <row r="23" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="P23" s="35" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="28"/>
+      <c r="P23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37" t="s">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37" t="s">
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
     </row>
     <row r="24" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="28"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
     </row>
     <row r="25" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="100"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="28"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
     </row>
     <row r="26" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="100"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="99"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="28"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
     </row>
     <row r="27" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="28"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
     </row>
     <row r="28" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="38"/>
-      <c r="P28" s="78" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="28"/>
+      <c r="P28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="31" t="s">
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31" t="s">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="99"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
     </row>
     <row r="29" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="99"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="28"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
     </row>
     <row r="30" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="31" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="33"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="99"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
     </row>
     <row r="31" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="33"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
     </row>
     <row r="32" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="33"/>
-      <c r="P32" s="35" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="P32" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37" t="s">
+      <c r="Q32" s="27"/>
+      <c r="R32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37" t="s">
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="99"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
     </row>
     <row r="33" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="33"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="99"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
     </row>
     <row r="34" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="33"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="99"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="99"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
     </row>
     <row r="35" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="33"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
     </row>
     <row r="36" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="33"/>
-      <c r="P36" s="27" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="P36" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="31" t="s">
+      <c r="Q36" s="73"/>
+      <c r="R36" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31" t="s">
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="99"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
     </row>
     <row r="37" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="33"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="100"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="99"/>
-      <c r="AG37" s="99"/>
-      <c r="AH37" s="99"/>
-      <c r="AI37" s="99"/>
-      <c r="AJ37" s="99"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
     </row>
     <row r="38" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="33"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="100"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="99"/>
-      <c r="AG38" s="99"/>
-      <c r="AH38" s="99"/>
-      <c r="AI38" s="99"/>
-      <c r="AJ38" s="99"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
     </row>
     <row r="39" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37" t="s">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="38"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="100"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="99"/>
-      <c r="AH39" s="99"/>
-      <c r="AI39" s="99"/>
-      <c r="AJ39" s="99"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="28"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
     </row>
     <row r="40" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
-      <c r="P40" s="27" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="28"/>
+      <c r="P40" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="31" t="s">
+      <c r="Q40" s="73"/>
+      <c r="R40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31" t="s">
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="99"/>
-      <c r="AH40" s="99"/>
-      <c r="AI40" s="99"/>
-      <c r="AJ40" s="99"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
     </row>
     <row r="41" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="38"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="100"/>
-      <c r="AE41" s="99"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="99"/>
-      <c r="AH41" s="99"/>
-      <c r="AI41" s="99"/>
-      <c r="AJ41" s="99"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="28"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
     </row>
     <row r="42" spans="4:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="38"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="100"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="99"/>
-      <c r="AG42" s="99"/>
-      <c r="AH42" s="99"/>
-      <c r="AI42" s="99"/>
-      <c r="AJ42" s="99"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="28"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
     </row>
     <row r="43" spans="4:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="100"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="99"/>
-      <c r="AH43" s="99"/>
-      <c r="AI43" s="99"/>
-      <c r="AJ43" s="99"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="28"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
     </row>
     <row r="44" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="55" t="s">
+      <c r="E44" s="59"/>
+      <c r="F44" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="55" t="s">
+      <c r="G44" s="50"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="57"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="51"/>
     </row>
     <row r="45" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="54"/>
     </row>
     <row r="46" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
     </row>
     <row r="47" spans="4:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="68"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="63"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="57"/>
     </row>
     <row r="48" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37" t="s">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="38"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="28"/>
     </row>
     <row r="49" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="38"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="28"/>
     </row>
     <row r="50" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="38"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="28"/>
     </row>
     <row r="51" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="38"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="28"/>
     </row>
     <row r="52" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="38"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="28"/>
     </row>
     <row r="53" spans="4:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="54"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="48"/>
     </row>
     <row r="54" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O54" s="1"/>
@@ -4349,96 +4349,96 @@
     <row r="57" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="4:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="4:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="91" t="s">
+      <c r="D60" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="87" t="s">
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="25" t="s">
+      <c r="I60" s="93"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="26"/>
+      <c r="L60" s="93"/>
+      <c r="M60" s="93"/>
+      <c r="N60" s="93"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="94"/>
     </row>
     <row r="61" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="89" t="s">
+      <c r="D61" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="93" t="s">
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="97" t="s">
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="98"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="96"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="14"/>
     </row>
     <row r="63" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
-      <c r="O63" s="95"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="96"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="14"/>
     </row>
     <row r="64" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="95"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="96"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="14"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
@@ -4448,26 +4448,26 @@
       <c r="AB64" s="6"/>
     </row>
     <row r="65" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="17" t="s">
         <v>88</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
-      <c r="K65" s="21" t="s">
+      <c r="K65" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="22"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="16"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
@@ -4477,20 +4477,20 @@
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="22"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="16"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
@@ -4500,20 +4500,20 @@
       <c r="AB66" s="7"/>
     </row>
     <row r="67" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="22"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="16"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
@@ -4523,20 +4523,20 @@
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="22"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="16"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
@@ -4547,26 +4547,26 @@
     </row>
     <row r="69" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="92" t="s">
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="95" t="s">
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
-      <c r="N69" s="95"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="96"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="14"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
@@ -4576,20 +4576,20 @@
       <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="95"/>
-      <c r="P70" s="95"/>
-      <c r="Q70" s="96"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="14"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
@@ -4599,20 +4599,20 @@
       <c r="AB70" s="7"/>
     </row>
     <row r="71" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="95"/>
-      <c r="P71" s="95"/>
-      <c r="Q71" s="96"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="14"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
@@ -4622,20 +4622,20 @@
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="95"/>
-      <c r="N72" s="95"/>
-      <c r="O72" s="95"/>
-      <c r="P72" s="95"/>
-      <c r="Q72" s="96"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="14"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
@@ -4645,26 +4645,26 @@
       <c r="AB72" s="7"/>
     </row>
     <row r="73" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
       <c r="H73" s="17" t="s">
         <v>87</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="21" t="s">
+      <c r="K73" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="22"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="16"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
@@ -4674,20 +4674,20 @@
       <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="22"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="16"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
@@ -4697,20 +4697,20 @@
       <c r="AB74" s="7"/>
     </row>
     <row r="75" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="22"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="16"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
@@ -4720,20 +4720,20 @@
       <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="22"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="16"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
@@ -4743,26 +4743,26 @@
       <c r="AB76" s="7"/>
     </row>
     <row r="77" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="94" t="s">
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="95" t="s">
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L77" s="95"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="95"/>
-      <c r="O77" s="95"/>
-      <c r="P77" s="95"/>
-      <c r="Q77" s="96"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="14"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
@@ -4772,20 +4772,20 @@
       <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="96"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="14"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
@@ -4795,20 +4795,20 @@
       <c r="AB78" s="7"/>
     </row>
     <row r="79" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="95"/>
-      <c r="P79" s="95"/>
-      <c r="Q79" s="96"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="14"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
@@ -4818,20 +4818,20 @@
       <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="8"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="94"/>
-      <c r="K80" s="95"/>
-      <c r="L80" s="95"/>
-      <c r="M80" s="95"/>
-      <c r="N80" s="95"/>
-      <c r="O80" s="95"/>
-      <c r="P80" s="95"/>
-      <c r="Q80" s="96"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="14"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
@@ -4841,26 +4841,26 @@
       <c r="AB80" s="7"/>
     </row>
     <row r="81" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
       <c r="H81" s="17" t="s">
         <v>88</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="21" t="s">
+      <c r="K81" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="22"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="16"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
@@ -4870,20 +4870,20 @@
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="82"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="22"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="16"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
@@ -4893,20 +4893,20 @@
       <c r="AB82" s="7"/>
     </row>
     <row r="83" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="82"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="22"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="16"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
@@ -4916,20 +4916,20 @@
       <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="22"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="16"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
@@ -4939,26 +4939,26 @@
       <c r="AB84" s="7"/>
     </row>
     <row r="85" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="92" t="s">
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
-      <c r="K85" s="95" t="s">
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L85" s="95"/>
-      <c r="M85" s="95"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="95"/>
-      <c r="P85" s="95"/>
-      <c r="Q85" s="96"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="14"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
@@ -4968,20 +4968,20 @@
       <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="95"/>
-      <c r="P86" s="95"/>
-      <c r="Q86" s="96"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="14"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
@@ -4991,20 +4991,20 @@
       <c r="AB86" s="7"/>
     </row>
     <row r="87" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="8"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="95"/>
-      <c r="L87" s="95"/>
-      <c r="M87" s="95"/>
-      <c r="N87" s="95"/>
-      <c r="O87" s="95"/>
-      <c r="P87" s="95"/>
-      <c r="Q87" s="96"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="14"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
@@ -5014,20 +5014,20 @@
       <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="95"/>
-      <c r="L88" s="95"/>
-      <c r="M88" s="95"/>
-      <c r="N88" s="95"/>
-      <c r="O88" s="95"/>
-      <c r="P88" s="95"/>
-      <c r="Q88" s="96"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="14"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
@@ -5037,26 +5037,26 @@
       <c r="AB88" s="7"/>
     </row>
     <row r="89" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="82"/>
       <c r="H89" s="17" t="s">
         <v>87</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
-      <c r="K89" s="21" t="s">
+      <c r="K89" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="22"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="16"/>
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
@@ -5066,20 +5066,20 @@
       <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="82"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="22"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="16"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
@@ -5089,20 +5089,20 @@
       <c r="AB90" s="7"/>
     </row>
     <row r="91" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="22"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="16"/>
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
@@ -5112,20 +5112,20 @@
       <c r="AB91" s="7"/>
     </row>
     <row r="92" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="22"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="16"/>
       <c r="V92" s="7"/>
       <c r="W92" s="7"/>
       <c r="X92" s="7"/>
@@ -5135,26 +5135,26 @@
       <c r="AB92" s="7"/>
     </row>
     <row r="93" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="92" t="s">
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="95" t="s">
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="L93" s="95"/>
-      <c r="M93" s="95"/>
-      <c r="N93" s="95"/>
-      <c r="O93" s="95"/>
-      <c r="P93" s="95"/>
-      <c r="Q93" s="96"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="14"/>
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
@@ -5164,20 +5164,20 @@
       <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="95"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="95"/>
-      <c r="P94" s="95"/>
-      <c r="Q94" s="96"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="80"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="14"/>
       <c r="V94" s="7"/>
       <c r="W94" s="7"/>
       <c r="X94" s="7"/>
@@ -5187,20 +5187,20 @@
       <c r="AB94" s="7"/>
     </row>
     <row r="95" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="95"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="95"/>
-      <c r="P95" s="95"/>
-      <c r="Q95" s="96"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="14"/>
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
       <c r="X95" s="7"/>
@@ -5210,20 +5210,20 @@
       <c r="AB95" s="7"/>
     </row>
     <row r="96" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
-      <c r="J96" s="92"/>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="M96" s="95"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="95"/>
-      <c r="P96" s="95"/>
-      <c r="Q96" s="96"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="14"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
       <c r="X96" s="7"/>
@@ -5233,26 +5233,26 @@
       <c r="AB96" s="7"/>
     </row>
     <row r="97" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="82"/>
       <c r="H97" s="17" t="s">
         <v>87</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="21" t="s">
+      <c r="K97" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="22"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="16"/>
       <c r="V97" s="7"/>
       <c r="W97" s="7"/>
       <c r="X97" s="7"/>
@@ -5262,20 +5262,20 @@
       <c r="AB97" s="7"/>
     </row>
     <row r="98" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="22"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="16"/>
       <c r="V98" s="7"/>
       <c r="W98" s="7"/>
       <c r="X98" s="7"/>
@@ -5285,20 +5285,20 @@
       <c r="AB98" s="7"/>
     </row>
     <row r="99" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="10"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="82"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="22"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="16"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7"/>
       <c r="X99" s="7"/>
@@ -5308,20 +5308,20 @@
       <c r="AB99" s="7"/>
     </row>
     <row r="100" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="22"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="16"/>
       <c r="V100" s="7"/>
       <c r="W100" s="7"/>
       <c r="X100" s="7"/>
@@ -5331,26 +5331,26 @@
       <c r="AB100" s="7"/>
     </row>
     <row r="101" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="92" t="s">
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="80"/>
+      <c r="H101" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I101" s="92"/>
-      <c r="J101" s="92"/>
-      <c r="K101" s="95" t="s">
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L101" s="95"/>
-      <c r="M101" s="95"/>
-      <c r="N101" s="95"/>
-      <c r="O101" s="95"/>
-      <c r="P101" s="95"/>
-      <c r="Q101" s="96"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="14"/>
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
       <c r="X101" s="7"/>
@@ -5360,20 +5360,20 @@
       <c r="AB101" s="7"/>
     </row>
     <row r="102" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="92"/>
-      <c r="K102" s="95"/>
-      <c r="L102" s="95"/>
-      <c r="M102" s="95"/>
-      <c r="N102" s="95"/>
-      <c r="O102" s="95"/>
-      <c r="P102" s="95"/>
-      <c r="Q102" s="96"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="80"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="14"/>
       <c r="V102" s="7"/>
       <c r="W102" s="7"/>
       <c r="X102" s="7"/>
@@ -5383,20 +5383,20 @@
       <c r="AB102" s="7"/>
     </row>
     <row r="103" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="95"/>
-      <c r="L103" s="95"/>
-      <c r="M103" s="95"/>
-      <c r="N103" s="95"/>
-      <c r="O103" s="95"/>
-      <c r="P103" s="95"/>
-      <c r="Q103" s="96"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="14"/>
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
       <c r="X103" s="7"/>
@@ -5406,20 +5406,20 @@
       <c r="AB103" s="7"/>
     </row>
     <row r="104" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="8"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="92"/>
-      <c r="J104" s="92"/>
-      <c r="K104" s="95"/>
-      <c r="L104" s="95"/>
-      <c r="M104" s="95"/>
-      <c r="N104" s="95"/>
-      <c r="O104" s="95"/>
-      <c r="P104" s="95"/>
-      <c r="Q104" s="96"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="14"/>
       <c r="V104" s="7"/>
       <c r="W104" s="7"/>
       <c r="X104" s="7"/>
@@ -5429,26 +5429,26 @@
       <c r="AB104" s="7"/>
     </row>
     <row r="105" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="92" t="s">
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="H105" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="95" t="s">
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L105" s="95"/>
-      <c r="M105" s="95"/>
-      <c r="N105" s="95"/>
-      <c r="O105" s="95"/>
-      <c r="P105" s="95"/>
-      <c r="Q105" s="96"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="14"/>
       <c r="V105" s="7"/>
       <c r="W105" s="7"/>
       <c r="X105" s="7"/>
@@ -5458,20 +5458,20 @@
       <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="8"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="95"/>
-      <c r="L106" s="95"/>
-      <c r="M106" s="95"/>
-      <c r="N106" s="95"/>
-      <c r="O106" s="95"/>
-      <c r="P106" s="95"/>
-      <c r="Q106" s="96"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="14"/>
       <c r="V106" s="7"/>
       <c r="W106" s="7"/>
       <c r="X106" s="7"/>
@@ -5481,20 +5481,20 @@
       <c r="AB106" s="7"/>
     </row>
     <row r="107" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="92"/>
-      <c r="J107" s="92"/>
-      <c r="K107" s="95"/>
-      <c r="L107" s="95"/>
-      <c r="M107" s="95"/>
-      <c r="N107" s="95"/>
-      <c r="O107" s="95"/>
-      <c r="P107" s="95"/>
-      <c r="Q107" s="96"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="14"/>
       <c r="V107" s="7"/>
       <c r="W107" s="7"/>
       <c r="X107" s="7"/>
@@ -5504,20 +5504,20 @@
       <c r="AB107" s="7"/>
     </row>
     <row r="108" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="8"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="92"/>
-      <c r="J108" s="92"/>
-      <c r="K108" s="95"/>
-      <c r="L108" s="95"/>
-      <c r="M108" s="95"/>
-      <c r="N108" s="95"/>
-      <c r="O108" s="95"/>
-      <c r="P108" s="95"/>
-      <c r="Q108" s="96"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="14"/>
       <c r="V108" s="7"/>
       <c r="W108" s="7"/>
       <c r="X108" s="7"/>
@@ -5527,26 +5527,26 @@
       <c r="AB108" s="7"/>
     </row>
     <row r="109" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82"/>
       <c r="H109" s="17" t="s">
         <v>87</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
-      <c r="K109" s="21" t="s">
+      <c r="K109" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="22"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="16"/>
       <c r="V109" s="7"/>
       <c r="W109" s="7"/>
       <c r="X109" s="7"/>
@@ -5556,20 +5556,20 @@
       <c r="AB109" s="7"/>
     </row>
     <row r="110" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
-      <c r="O110" s="21"/>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="22"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="16"/>
       <c r="V110" s="7"/>
       <c r="W110" s="7"/>
       <c r="X110" s="7"/>
@@ -5579,20 +5579,20 @@
       <c r="AB110" s="7"/>
     </row>
     <row r="111" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="82"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="21"/>
-      <c r="P111" s="21"/>
-      <c r="Q111" s="22"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="16"/>
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
       <c r="X111" s="7"/>
@@ -5602,20 +5602,20 @@
       <c r="AB111" s="7"/>
     </row>
     <row r="112" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
-      <c r="P112" s="21"/>
-      <c r="Q112" s="22"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="16"/>
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="7"/>
@@ -5625,26 +5625,26 @@
       <c r="AB112" s="7"/>
     </row>
     <row r="113" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="92" t="s">
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I113" s="92"/>
-      <c r="J113" s="92"/>
-      <c r="K113" s="95" t="s">
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L113" s="95"/>
-      <c r="M113" s="95"/>
-      <c r="N113" s="95"/>
-      <c r="O113" s="95"/>
-      <c r="P113" s="95"/>
-      <c r="Q113" s="96"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="14"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
@@ -5654,20 +5654,20 @@
       <c r="AB113" s="7"/>
     </row>
     <row r="114" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="8"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="92"/>
-      <c r="I114" s="92"/>
-      <c r="J114" s="92"/>
-      <c r="K114" s="95"/>
-      <c r="L114" s="95"/>
-      <c r="M114" s="95"/>
-      <c r="N114" s="95"/>
-      <c r="O114" s="95"/>
-      <c r="P114" s="95"/>
-      <c r="Q114" s="96"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="14"/>
       <c r="V114" s="7"/>
       <c r="W114" s="7"/>
       <c r="X114" s="7"/>
@@ -5677,20 +5677,20 @@
       <c r="AB114" s="7"/>
     </row>
     <row r="115" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="92"/>
-      <c r="I115" s="92"/>
-      <c r="J115" s="92"/>
-      <c r="K115" s="95"/>
-      <c r="L115" s="95"/>
-      <c r="M115" s="95"/>
-      <c r="N115" s="95"/>
-      <c r="O115" s="95"/>
-      <c r="P115" s="95"/>
-      <c r="Q115" s="96"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="14"/>
       <c r="V115" s="7"/>
       <c r="W115" s="7"/>
       <c r="X115" s="7"/>
@@ -5700,20 +5700,20 @@
       <c r="AB115" s="7"/>
     </row>
     <row r="116" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D116" s="8"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="92"/>
-      <c r="I116" s="92"/>
-      <c r="J116" s="92"/>
-      <c r="K116" s="95"/>
-      <c r="L116" s="95"/>
-      <c r="M116" s="95"/>
-      <c r="N116" s="95"/>
-      <c r="O116" s="95"/>
-      <c r="P116" s="95"/>
-      <c r="Q116" s="96"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="80"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="14"/>
       <c r="V116" s="7"/>
       <c r="W116" s="7"/>
       <c r="X116" s="7"/>
@@ -5723,26 +5723,26 @@
       <c r="AB116" s="7"/>
     </row>
     <row r="117" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="16" t="s">
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="19" t="s">
+      <c r="I117" s="87"/>
+      <c r="J117" s="87"/>
+      <c r="K117" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="20"/>
+      <c r="L117" s="89"/>
+      <c r="M117" s="89"/>
+      <c r="N117" s="89"/>
+      <c r="O117" s="89"/>
+      <c r="P117" s="89"/>
+      <c r="Q117" s="90"/>
       <c r="V117" s="7"/>
       <c r="W117" s="7"/>
       <c r="X117" s="7"/>
@@ -5752,20 +5752,20 @@
       <c r="AB117" s="7"/>
     </row>
     <row r="118" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="82"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="82"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="22"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="16"/>
       <c r="V118" s="7"/>
       <c r="W118" s="7"/>
       <c r="X118" s="7"/>
@@ -5775,20 +5775,20 @@
       <c r="AB118" s="7"/>
     </row>
     <row r="119" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="82"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="22"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="16"/>
       <c r="V119" s="7"/>
       <c r="W119" s="7"/>
       <c r="X119" s="7"/>
@@ -5798,20 +5798,20 @@
       <c r="AB119" s="7"/>
     </row>
     <row r="120" spans="4:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
-      <c r="M120" s="23"/>
-      <c r="N120" s="23"/>
-      <c r="O120" s="23"/>
-      <c r="P120" s="23"/>
-      <c r="Q120" s="24"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="86"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="88"/>
+      <c r="J120" s="88"/>
+      <c r="K120" s="91"/>
+      <c r="L120" s="91"/>
+      <c r="M120" s="91"/>
+      <c r="N120" s="91"/>
+      <c r="O120" s="91"/>
+      <c r="P120" s="91"/>
+      <c r="Q120" s="92"/>
       <c r="V120" s="7"/>
       <c r="W120" s="7"/>
       <c r="X120" s="7"/>
@@ -7143,6 +7143,88 @@
     <row r="235" spans="22:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="D101:G104"/>
+    <mergeCell ref="D117:G120"/>
+    <mergeCell ref="H117:J120"/>
+    <mergeCell ref="K117:Q120"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:T43"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="D61:G64"/>
+    <mergeCell ref="D65:G68"/>
+    <mergeCell ref="D69:G72"/>
+    <mergeCell ref="D73:G76"/>
+    <mergeCell ref="D77:G80"/>
+    <mergeCell ref="D81:G84"/>
+    <mergeCell ref="D85:G88"/>
+    <mergeCell ref="D89:G92"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H105:J108"/>
+    <mergeCell ref="D105:G108"/>
+    <mergeCell ref="D109:G112"/>
+    <mergeCell ref="D113:G116"/>
+    <mergeCell ref="H61:J64"/>
+    <mergeCell ref="U40:AC43"/>
+    <mergeCell ref="P32:Q35"/>
+    <mergeCell ref="R32:T35"/>
+    <mergeCell ref="U32:AC35"/>
+    <mergeCell ref="P36:Q39"/>
+    <mergeCell ref="R36:T39"/>
+    <mergeCell ref="U36:AC39"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U5:AC12"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:AC4"/>
+    <mergeCell ref="P5:Q12"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD5:AF12"/>
+    <mergeCell ref="D48:E53"/>
+    <mergeCell ref="F48:H53"/>
+    <mergeCell ref="I48:M53"/>
+    <mergeCell ref="I44:M47"/>
+    <mergeCell ref="D44:E47"/>
+    <mergeCell ref="F44:H47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I16:M29"/>
+    <mergeCell ref="F16:H29"/>
+    <mergeCell ref="D16:E29"/>
+    <mergeCell ref="I5:M9"/>
+    <mergeCell ref="F5:H9"/>
+    <mergeCell ref="D5:E9"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="F10:H12"/>
+    <mergeCell ref="I10:M12"/>
+    <mergeCell ref="I39:M43"/>
+    <mergeCell ref="F39:H43"/>
+    <mergeCell ref="D39:E43"/>
+    <mergeCell ref="R5:T12"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="U28:AC31"/>
+    <mergeCell ref="R28:T31"/>
+    <mergeCell ref="R23:T27"/>
+    <mergeCell ref="P23:Q27"/>
+    <mergeCell ref="U23:AC27"/>
+    <mergeCell ref="R13:T17"/>
+    <mergeCell ref="P13:Q17"/>
+    <mergeCell ref="U13:AC17"/>
+    <mergeCell ref="R18:T22"/>
+    <mergeCell ref="P18:Q22"/>
+    <mergeCell ref="U18:AC22"/>
+    <mergeCell ref="H85:J88"/>
+    <mergeCell ref="H89:J92"/>
+    <mergeCell ref="H93:J96"/>
+    <mergeCell ref="H97:J100"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="F13:H15"/>
+    <mergeCell ref="I13:M15"/>
+    <mergeCell ref="I30:M38"/>
+    <mergeCell ref="D30:E38"/>
+    <mergeCell ref="F30:H38"/>
+    <mergeCell ref="D93:G96"/>
+    <mergeCell ref="D97:G100"/>
     <mergeCell ref="AD13:AJ43"/>
     <mergeCell ref="AG4:AL12"/>
     <mergeCell ref="H101:J104"/>
@@ -7167,88 +7249,6 @@
     <mergeCell ref="H73:J76"/>
     <mergeCell ref="H77:J80"/>
     <mergeCell ref="H81:J84"/>
-    <mergeCell ref="H85:J88"/>
-    <mergeCell ref="H89:J92"/>
-    <mergeCell ref="H93:J96"/>
-    <mergeCell ref="H97:J100"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="F13:H15"/>
-    <mergeCell ref="I13:M15"/>
-    <mergeCell ref="I30:M38"/>
-    <mergeCell ref="D30:E38"/>
-    <mergeCell ref="F30:H38"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="U28:AC31"/>
-    <mergeCell ref="R28:T31"/>
-    <mergeCell ref="R23:T27"/>
-    <mergeCell ref="P23:Q27"/>
-    <mergeCell ref="U23:AC27"/>
-    <mergeCell ref="R13:T17"/>
-    <mergeCell ref="P13:Q17"/>
-    <mergeCell ref="U13:AC17"/>
-    <mergeCell ref="R18:T22"/>
-    <mergeCell ref="P18:Q22"/>
-    <mergeCell ref="U18:AC22"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD5:AF12"/>
-    <mergeCell ref="D48:E53"/>
-    <mergeCell ref="F48:H53"/>
-    <mergeCell ref="I48:M53"/>
-    <mergeCell ref="I44:M47"/>
-    <mergeCell ref="D44:E47"/>
-    <mergeCell ref="F44:H47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I16:M29"/>
-    <mergeCell ref="F16:H29"/>
-    <mergeCell ref="D16:E29"/>
-    <mergeCell ref="I5:M9"/>
-    <mergeCell ref="F5:H9"/>
-    <mergeCell ref="D5:E9"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="F10:H12"/>
-    <mergeCell ref="I10:M12"/>
-    <mergeCell ref="I39:M43"/>
-    <mergeCell ref="F39:H43"/>
-    <mergeCell ref="D39:E43"/>
-    <mergeCell ref="R5:T12"/>
-    <mergeCell ref="U40:AC43"/>
-    <mergeCell ref="P32:Q35"/>
-    <mergeCell ref="R32:T35"/>
-    <mergeCell ref="U32:AC35"/>
-    <mergeCell ref="P36:Q39"/>
-    <mergeCell ref="R36:T39"/>
-    <mergeCell ref="U36:AC39"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U5:AC12"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:AC4"/>
-    <mergeCell ref="P5:Q12"/>
-    <mergeCell ref="D93:G96"/>
-    <mergeCell ref="D97:G100"/>
-    <mergeCell ref="D101:G104"/>
-    <mergeCell ref="D117:G120"/>
-    <mergeCell ref="H117:J120"/>
-    <mergeCell ref="K117:Q120"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:T43"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="D61:G64"/>
-    <mergeCell ref="D65:G68"/>
-    <mergeCell ref="D69:G72"/>
-    <mergeCell ref="D73:G76"/>
-    <mergeCell ref="D77:G80"/>
-    <mergeCell ref="D81:G84"/>
-    <mergeCell ref="D85:G88"/>
-    <mergeCell ref="D89:G92"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H105:J108"/>
-    <mergeCell ref="D105:G108"/>
-    <mergeCell ref="D109:G112"/>
-    <mergeCell ref="D113:G116"/>
-    <mergeCell ref="H61:J64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
